--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit1-Robo1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H2">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I2">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J2">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N2">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q2">
-        <v>0.07374297135122222</v>
+        <v>0.1319518318433333</v>
       </c>
       <c r="R2">
-        <v>0.663686742161</v>
+        <v>1.18756648659</v>
       </c>
       <c r="S2">
-        <v>0.001419435544279549</v>
+        <v>0.001679425165168121</v>
       </c>
       <c r="T2">
-        <v>0.00141943554427955</v>
+        <v>0.001679425165168121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H3">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I3">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J3">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>74.544746</v>
       </c>
       <c r="O3">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P3">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q3">
-        <v>4.433068368875778</v>
+        <v>10.48150481807244</v>
       </c>
       <c r="R3">
-        <v>39.89761531988201</v>
+        <v>94.33354336265199</v>
       </c>
       <c r="S3">
-        <v>0.0853295534164742</v>
+        <v>0.1334040059496994</v>
       </c>
       <c r="T3">
-        <v>0.08532955341647422</v>
+        <v>0.1334040059496994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H4">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I4">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J4">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N4">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q4">
-        <v>0.742327127467889</v>
+        <v>5.427563143434667</v>
       </c>
       <c r="R4">
-        <v>6.680944147211001</v>
+        <v>48.848068290912</v>
       </c>
       <c r="S4">
-        <v>0.01428862291420799</v>
+        <v>0.06907964824198615</v>
       </c>
       <c r="T4">
-        <v>0.01428862291420799</v>
+        <v>0.06907964824198615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H5">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I5">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J5">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N5">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q5">
-        <v>0.001478447759666667</v>
+        <v>0.02486267252088889</v>
       </c>
       <c r="R5">
-        <v>0.013306029837</v>
+        <v>0.223764052688</v>
       </c>
       <c r="S5">
-        <v>2.845778061255941E-05</v>
+        <v>0.0003164412143553302</v>
       </c>
       <c r="T5">
-        <v>2.845778061255941E-05</v>
+        <v>0.0003164412143553302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>1.875599</v>
       </c>
       <c r="I6">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J6">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N6">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q6">
-        <v>0.2584227394185555</v>
+        <v>0.1955718337283333</v>
       </c>
       <c r="R6">
-        <v>2.325804654766999</v>
+        <v>1.760146503555</v>
       </c>
       <c r="S6">
-        <v>0.00497422893408688</v>
+        <v>0.002489152704991665</v>
       </c>
       <c r="T6">
-        <v>0.004974228934086881</v>
+        <v>0.002489152704991665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.875599</v>
       </c>
       <c r="I7">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J7">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>74.544746</v>
       </c>
       <c r="O7">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P7">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q7">
         <v>15.53511678365044</v>
@@ -883,10 +883,10 @@
         <v>139.816051052854</v>
       </c>
       <c r="S7">
-        <v>0.2990264230366105</v>
+        <v>0.1977241672648015</v>
       </c>
       <c r="T7">
-        <v>0.2990264230366105</v>
+        <v>0.1977241672648015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.875599</v>
       </c>
       <c r="I8">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J8">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N8">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q8">
-        <v>2.601389750235222</v>
+        <v>8.044439109402667</v>
       </c>
       <c r="R8">
-        <v>23.412507752117</v>
+        <v>72.399951984624</v>
       </c>
       <c r="S8">
-        <v>0.05007263754564146</v>
+        <v>0.1023861002250727</v>
       </c>
       <c r="T8">
-        <v>0.05007263754564147</v>
+        <v>0.1023861002250727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>1.875599</v>
       </c>
       <c r="I9">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J9">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N9">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q9">
-        <v>0.005181029637666667</v>
+        <v>0.03685010195288889</v>
       </c>
       <c r="R9">
-        <v>0.046629266739</v>
+        <v>0.331650917576</v>
       </c>
       <c r="S9">
-        <v>9.972662463848457E-05</v>
+        <v>0.0004690119697024826</v>
       </c>
       <c r="T9">
-        <v>9.972662463848457E-05</v>
+        <v>0.0004690119697024825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H10">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I10">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J10">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N10">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q10">
-        <v>0.04804452745922222</v>
+        <v>0.146845683895</v>
       </c>
       <c r="R10">
-        <v>0.432400747133</v>
+        <v>1.321611155055</v>
       </c>
       <c r="S10">
-        <v>0.0009247811518053856</v>
+        <v>0.001868987595582562</v>
       </c>
       <c r="T10">
-        <v>0.0009247811518053857</v>
+        <v>0.001868987595582562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H11">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I11">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J11">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>74.544746</v>
       </c>
       <c r="O11">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P11">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q11">
-        <v>2.888203052771778</v>
+        <v>11.66458791633933</v>
       </c>
       <c r="R11">
-        <v>25.993827474946</v>
+        <v>104.981291247054</v>
       </c>
       <c r="S11">
-        <v>0.05559333990863139</v>
+        <v>0.1484617698318525</v>
       </c>
       <c r="T11">
-        <v>0.0555933399086314</v>
+        <v>0.1484617698318525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H12">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I12">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J12">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N12">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q12">
-        <v>0.4836360049758889</v>
+        <v>6.040190655536001</v>
       </c>
       <c r="R12">
-        <v>4.352724044783</v>
+        <v>54.36171589982401</v>
       </c>
       <c r="S12">
-        <v>0.009309228030513306</v>
+        <v>0.07687690309115633</v>
       </c>
       <c r="T12">
-        <v>0.009309228030513308</v>
+        <v>0.0768769030911563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H13">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I13">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J13">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N13">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q13">
-        <v>0.0009632283956666667</v>
+        <v>0.02766900693066667</v>
       </c>
       <c r="R13">
-        <v>0.008669055561</v>
+        <v>0.249021062376</v>
       </c>
       <c r="S13">
-        <v>1.8540622882644E-05</v>
+        <v>0.0003521590104921343</v>
       </c>
       <c r="T13">
-        <v>1.8540622882644E-05</v>
+        <v>0.0003521590104921342</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H14">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I14">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J14">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N14">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O14">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P14">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q14">
-        <v>0.3494408860556666</v>
+        <v>0.17093650549</v>
       </c>
       <c r="R14">
-        <v>3.144967974501</v>
+        <v>1.53842854941</v>
       </c>
       <c r="S14">
-        <v>0.006726184274967274</v>
+        <v>0.002175605029164351</v>
       </c>
       <c r="T14">
-        <v>0.006726184274967275</v>
+        <v>0.00217560502916435</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H15">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I15">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J15">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>74.544746</v>
       </c>
       <c r="O15">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P15">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q15">
-        <v>21.00668457455133</v>
+        <v>13.57822609090533</v>
       </c>
       <c r="R15">
-        <v>189.060161170962</v>
+        <v>122.204034818148</v>
       </c>
       <c r="S15">
-        <v>0.4043454475216624</v>
+        <v>0.1728177189876648</v>
       </c>
       <c r="T15">
-        <v>0.4043454475216625</v>
+        <v>0.1728177189876648</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H16">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I16">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J16">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N16">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O16">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P16">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q16">
-        <v>3.517615908505667</v>
+        <v>7.031116310432001</v>
       </c>
       <c r="R16">
-        <v>31.658543176551</v>
+        <v>63.280046793888</v>
       </c>
       <c r="S16">
-        <v>0.067708541711391</v>
+        <v>0.08948897113443241</v>
       </c>
       <c r="T16">
-        <v>0.06770854171139101</v>
+        <v>0.0894889711344324</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H17">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I17">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J17">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N17">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q17">
-        <v>0.007005821513000001</v>
+        <v>0.03220825583466667</v>
       </c>
       <c r="R17">
-        <v>0.063052393617</v>
+        <v>0.289874302512</v>
       </c>
       <c r="S17">
-        <v>0.0001348509815948135</v>
+        <v>0.0004099325838775391</v>
       </c>
       <c r="T17">
-        <v>0.0001348509815948135</v>
+        <v>0.000409932583877539</v>
       </c>
     </row>
   </sheetData>
